--- a/InputData/indst/SoFCTiBoSFbI/Share of Fuel Cons that is Byproduct or Secondary Fuel by Indst.xlsx
+++ b/InputData/indst/SoFCTiBoSFbI/Share of Fuel Cons that is Byproduct or Secondary Fuel by Indst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\SoFCTiBoSFbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C869CDD-86B4-4CF9-B372-A97CE90D7189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDBCCC2-1848-4A83-AD1A-0D4C00D01A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{A442510F-A3E1-4EEA-BB03-095C9DE9B5AE}"/>
+    <workbookView xWindow="31650" yWindow="2850" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{A442510F-A3E1-4EEA-BB03-095C9DE9B5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
   <si>
     <t>ItUBB Industries that Use Byproduct Biomass</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -12925,6 +12931,18 @@
     <row r="2830" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1179:AF1179"/>
+    <mergeCell ref="B95:AG95"/>
+    <mergeCell ref="B156:AF156"/>
+    <mergeCell ref="B292:AF292"/>
+    <mergeCell ref="B378:AF378"/>
+    <mergeCell ref="B560:AF560"/>
+    <mergeCell ref="B652:AF652"/>
+    <mergeCell ref="B728:AF728"/>
+    <mergeCell ref="B819:AF819"/>
+    <mergeCell ref="B897:AF897"/>
+    <mergeCell ref="B983:AF983"/>
+    <mergeCell ref="B1082:AF1082"/>
     <mergeCell ref="B2828:AF2828"/>
     <mergeCell ref="B1313:AF1313"/>
     <mergeCell ref="B1431:AF1431"/>
@@ -12937,18 +12955,6 @@
     <mergeCell ref="B2378:AF2378"/>
     <mergeCell ref="B2528:AF2528"/>
     <mergeCell ref="B2678:AF2678"/>
-    <mergeCell ref="B1179:AF1179"/>
-    <mergeCell ref="B95:AG95"/>
-    <mergeCell ref="B156:AF156"/>
-    <mergeCell ref="B292:AF292"/>
-    <mergeCell ref="B378:AF378"/>
-    <mergeCell ref="B560:AF560"/>
-    <mergeCell ref="B652:AF652"/>
-    <mergeCell ref="B728:AF728"/>
-    <mergeCell ref="B819:AF819"/>
-    <mergeCell ref="B897:AF897"/>
-    <mergeCell ref="B983:AF983"/>
-    <mergeCell ref="B1082:AF1082"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12960,10 +12966,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12971,7 +12977,7 @@
     <col min="1" max="1" width="46.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>188</v>
       </c>
@@ -13005,8 +13011,14 @@
       <c r="K1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -13040,8 +13052,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13075,8 +13093,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -13110,8 +13134,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13145,8 +13175,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13180,8 +13216,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13215,8 +13257,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -13250,8 +13298,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13285,8 +13339,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13321,8 +13381,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -13356,8 +13422,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -13391,8 +13463,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -13426,8 +13504,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -13461,8 +13545,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13496,8 +13586,14 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -13531,8 +13627,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -13566,8 +13668,14 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -13601,8 +13709,14 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -13636,8 +13750,14 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -13671,8 +13791,14 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -13706,8 +13832,14 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -13741,8 +13873,14 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -13776,8 +13914,14 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -13811,8 +13955,14 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -13846,8 +13996,14 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -13879,6 +14035,12 @@
         <v>0</v>
       </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
     </row>
